--- a/Unity/Assets/Config/Excel/Datas/Random/RandomBag.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomBag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>##var</t>
   </si>
@@ -25,7 +25,10 @@
     <t>is_random_one</t>
   </si>
   <si>
-    <t>*items</t>
+    <t>items</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
   <si>
     <t>##type</t>
@@ -49,19 +52,22 @@
     <t>备注</t>
   </si>
   <si>
-    <t>是否单个包</t>
+    <t>是否单包</t>
+  </si>
+  <si>
+    <t>占位,合并字段不能最后</t>
   </si>
   <si>
     <t>先随集合，再从集合中随</t>
   </si>
   <si>
-    <t>1,1000,3</t>
-  </si>
-  <si>
-    <t>2,1000,3</t>
-  </si>
-  <si>
-    <t>3,1000,3</t>
+    <t>1,1000,1</t>
+  </si>
+  <si>
+    <t>2,1000,1</t>
+  </si>
+  <si>
+    <t>3,1000,1</t>
   </si>
   <si>
     <t>每个集合随一个</t>
@@ -449,12 +455,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -579,7 +618,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -591,34 +630,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -703,15 +742,24 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1033,10 +1081,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4"/>
@@ -1044,89 +1092,100 @@
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="25.2857142857143" style="1" customWidth="1"/>
     <col min="4" max="4" width="15.7857142857143" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7857142857143" style="1" customWidth="1"/>
-    <col min="6" max="10" width="10.7142857142857" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.14285714285714" style="1"/>
+    <col min="5" max="5" width="11.6071428571429" style="2" customWidth="1"/>
+    <col min="6" max="9" width="11.6071428571429" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6071428571429" style="3" customWidth="1"/>
+    <col min="11" max="11" width="22.1696428571429" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.14285714285714" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:11">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
+      <c r="E2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="4" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    <row r="3" spans="1:11">
+      <c r="A3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="D3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="2:6">
@@ -1134,16 +1193,16 @@
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
+      <c r="E5" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Unity/Assets/Config/Excel/Datas/Random/RandomBag.xlsx
+++ b/Unity/Assets/Config/Excel/Datas/Random/RandomBag.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18060"/>
+    <workbookView windowHeight="17560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>##var</t>
   </si>
@@ -71,6 +71,15 @@
   </si>
   <si>
     <t>每个集合随一个</t>
+  </si>
+  <si>
+    <t>掉落血瓶或水瓶</t>
+  </si>
+  <si>
+    <t>4,1000,1</t>
+  </si>
+  <si>
+    <t>5,1000,1</t>
   </si>
 </sst>
 </file>
@@ -742,7 +751,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -754,9 +763,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1081,13 +1087,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.8" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="2" width="9.14285714285714" style="1"/>
     <col min="3" max="3" width="25.2857142857143" style="1" customWidth="1"/>
@@ -1158,12 +1164,12 @@
       <c r="D3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
       <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1203,6 +1209,23 @@
       </c>
       <c r="F5" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
